--- a/result/without_base/12/valence/s01_7.xlsx
+++ b/result/without_base/12/valence/s01_7.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.5249999910593033</v>
+        <v>0.5150000005960464</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -510,13 +510,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C2" t="n">
-        <v>5073.144287109375</v>
+        <v>41715.03515625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5121590955690905</v>
+        <v>0.5614772709933195</v>
       </c>
       <c r="E2" t="n">
-        <v>5073.112926136364</v>
+        <v>41709.78835227273</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -592,13 +592,13 @@
         <v>0.5300000011920929</v>
       </c>
       <c r="C3" t="n">
-        <v>4971.32275390625</v>
+        <v>40930.958984375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5161363617940382</v>
+        <v>0.5787499980493025</v>
       </c>
       <c r="E3" t="n">
-        <v>4971.303977272727</v>
+        <v>40928.23686079546</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5225000083446503</v>
+        <v>0.5200000107288361</v>
       </c>
       <c r="C4" t="n">
-        <v>4871.177734375</v>
+        <v>40164.642578125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5302272655747153</v>
+        <v>0.6213636452501471</v>
       </c>
       <c r="E4" t="n">
-        <v>4871.172807173295</v>
+        <v>40160.47940340909</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,1308 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5249999910593033</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C5" t="n">
-        <v>4773.021240234375</v>
+        <v>39411.5234375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5339772782542489</v>
+        <v>0.6547727259722623</v>
       </c>
       <c r="E5" t="n">
-        <v>4772.995916193182</v>
+        <v>39406.18465909091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4874999970197678</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38670.494140625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6605681777000427</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38664.08238636364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4924999922513962</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37938.70703125</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6659090898253701</v>
+      </c>
+      <c r="E7" t="n">
+        <v>37933.40802556818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4350000023841858</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37220.037109375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7012500058520924</v>
+      </c>
+      <c r="E8" t="n">
+        <v>37214.01313920454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4649999886751175</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36513.38671875</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7086363597349687</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36506.953125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4675000011920929</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35819.462890625</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7198863625526428</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35812.25994318182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4550000131130219</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35135.828125</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7220454595305703</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35129.39630681818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4675000160932541</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34467.3671875</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7120454473928972</v>
+      </c>
+      <c r="E12" t="n">
+        <v>34459.31960227273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4650000035762787</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33806.5078125</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7470454573631287</v>
+      </c>
+      <c r="E13" t="n">
+        <v>33799.39346590909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5050000101327896</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33158.361328125</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7707954482598738</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33151.29083806818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4524999856948853</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32520.4580078125</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8026136268268932</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32514.84907670454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.447500005364418</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31895.919921875</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7923863638531078</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31890.26793323864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4825000166893005</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31282.2607421875</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.806931815364144</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31276.36594460227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5300000011920929</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30679.05859375</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8196590922095559</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30673.57386363636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4524999856948853</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30086.8525390625</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8338636268268932</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30081.36026278409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.502499982714653</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29505.34765625</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8339772766286676</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29499.96946022727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4799999892711639</v>
+      </c>
+      <c r="C21" t="n">
+        <v>28935.39453125</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8100000023841858</v>
+      </c>
+      <c r="E21" t="n">
+        <v>28929.37073863636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4325000047683716</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28373.91796875</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8382954597473145</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28368.37375710227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4425000101327896</v>
+      </c>
+      <c r="C23" t="n">
+        <v>27822.7626953125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8687500032511625</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27817.59499289773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.427499994635582</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27282.2373046875</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8434090885249051</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27277.18128551136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.447500005364418</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26751.5087890625</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8763636350631714</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26746.08629261364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.489999994635582</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26229.9609375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8413636359301481</v>
+      </c>
+      <c r="E26" t="n">
+        <v>26225.16033380682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4824999868869781</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25717.9970703125</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8552272699095986</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25713.357421875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4675000011920929</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25215.76953125</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8862499973990701</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25210.87286931818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4800000041723251</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24722.4931640625</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8905681805177168</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24717.67489346591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4849999845027924</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24237.8740234375</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9061363610354337</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24233.41335227273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4749999940395355</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23762.4248046875</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8859090859239752</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23758.2109375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4699999988079071</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23295.89453125</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8992045413364064</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23291.54794034091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4824999868869781</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22837.748046875</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9068181785670194</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22833.498046875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4874999821186066</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22388.064453125</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9095454432747581</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22383.83984375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4600000083446503</v>
+      </c>
+      <c r="C35" t="n">
+        <v>21946.958984375</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9177272753282026</v>
+      </c>
+      <c r="E35" t="n">
+        <v>21942.46395596591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4350000023841858</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21513.642578125</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9020454450087114</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21509.34108664773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4675000011920929</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21088.318359375</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9181818149306558</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21084.04385653409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4724999964237213</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20670.7119140625</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9076136404817755</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20666.70259232954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.489999994635582</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20260.4609375</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9064772725105286</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20257.06321022727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4949999898672104</v>
+      </c>
+      <c r="C40" t="n">
+        <v>19858.7509765625</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9228409149430015</v>
+      </c>
+      <c r="E40" t="n">
+        <v>19854.99307528409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4699999988079071</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19464.3974609375</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9170454577966169</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19460.42489346591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.447500005364418</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19076.9931640625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9250000010837208</v>
+      </c>
+      <c r="E42" t="n">
+        <v>19073.12411221591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.4824999868869781</v>
+      </c>
+      <c r="C43" t="n">
+        <v>18696.9287109375</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8877272660082037</v>
+      </c>
+      <c r="E43" t="n">
+        <v>18693.16938920454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4874999970197678</v>
+      </c>
+      <c r="C44" t="n">
+        <v>18323.5751953125</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.925454546104778</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18319.99911221591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4699999988079071</v>
+      </c>
+      <c r="C45" t="n">
+        <v>17957.8486328125</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9000000086697665</v>
+      </c>
+      <c r="E45" t="n">
+        <v>17954.02414772727</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4874999970197678</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17598.0810546875</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9293181896209717</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17594.63955965909</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17245.150390625</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9276136430827054</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17242.05202414773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5199999809265137</v>
+      </c>
+      <c r="C48" t="n">
+        <v>16898.9814453125</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9197727333415638</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16896.12908380682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4825000017881393</v>
+      </c>
+      <c r="C49" t="n">
+        <v>16559.5595703125</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9037499915469777</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16556.67169744318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5199999809265137</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16226.271484375</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8912499926306985</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16223.51669034091</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4924999922513962</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15899.27294921875</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9112500114874407</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15896.54873934659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4874999970197678</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15578.2646484375</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9300000017339533</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15575.67294034091</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15263.53369140625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9115909012881193</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15260.91557173295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5049999952316284</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14954.46240234375</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9135227311741222</v>
+      </c>
+      <c r="E54" t="n">
+        <v>14952.00390625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.4774999916553497</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14651.51708984375</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9380681839856234</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14648.85129616477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5224999785423279</v>
+      </c>
+      <c r="C56" t="n">
+        <v>14354.2451171875</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8752272725105286</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14351.67888849432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.4925000071525574</v>
+      </c>
+      <c r="C57" t="n">
+        <v>14062.25537109375</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.8985227183862166</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14059.81019176136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5275000035762787</v>
+      </c>
+      <c r="C58" t="n">
+        <v>13775.63037109375</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9270454482598738</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13773.44850852273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13494.96337890625</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9179545586759393</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13492.56143465909</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4949999898672104</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13219.3134765625</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9351136305115439</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13216.94016335227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5149999856948853</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12948.67431640625</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9482954523780129</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12946.50905539773</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4874999821186066</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12683.6484375</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9207954569296404</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12681.30672940341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.4974999874830246</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12422.96435546875</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9371590939435092</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12421.00816761364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5474999845027924</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12167.6611328125</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9404545426368713</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12165.69096235795</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4999999850988388</v>
+      </c>
+      <c r="C65" t="n">
+        <v>11917.25927734375</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9415909051895142</v>
+      </c>
+      <c r="E65" t="n">
+        <v>11915.23721590909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4874999970197678</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11671.6396484375</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.929886357350783</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11669.54758522727</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5049999952316284</v>
+      </c>
+      <c r="C67" t="n">
+        <v>11430.4453125</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9289772673086687</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11428.50550426136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5449999868869781</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11193.97216796875</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9212500073693015</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11192.08611505682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5774999856948853</v>
+      </c>
+      <c r="C69" t="n">
+        <v>10961.99658203125</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9355681809512052</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10960.125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.4849999994039536</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10734.53369140625</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9164772792295977</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10732.66166548295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5575000047683716</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10511.3232421875</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9394318244673989</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10509.44034090909</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5150000005960464</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10292.52734375</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9168181907046925</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10290.60671164773</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.512499988079071</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10077.82080078125</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.8943181850693442</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10075.94717684659</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.4874999970197678</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9867.1591796875</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9032954519445245</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9865.359907670454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.4899999797344208</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9660.81103515625</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.8788636489347978</v>
+      </c>
+      <c r="E75" t="n">
+        <v>9658.90713778409</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5275000035762787</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9457.81640625</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9232954599640586</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9456.235529119318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5024999976158142</v>
+      </c>
+      <c r="C77" t="n">
+        <v>9259.1728515625</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9187499989162792</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9257.586470170454</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9064.22314453125</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9275000095367432</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9062.757990056818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5450000166893005</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8873.22412109375</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9205681844191118</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8871.704634232954</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8685.99462890625</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.8992045467550104</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8684.397017045454</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5150000005960464</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8502.033203125</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9102272716435519</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8500.61141690341</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,98 +1962,98 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
+        <v>0.01739130434782609</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5424</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.056</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C6" t="n">
-        <v>0.056</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -769,164 +2061,164 @@
         <v>0.06956521739130435</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C11" t="n">
-        <v>0.144</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C12" t="n">
-        <v>0.144</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C13" t="n">
-        <v>0.152</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.1130434782608696</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C14" t="n">
-        <v>0.152</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.1130434782608696</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C15" t="n">
-        <v>0.168</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C16" t="n">
-        <v>0.168</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C17" t="n">
-        <v>0.176</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C18" t="n">
-        <v>0.176</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C19" t="n">
-        <v>0.192</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1478260869565217</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C20" t="n">
-        <v>0.192</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1478260869565217</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C25" t="n">
-        <v>0.232</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -934,21 +2226,21 @@
         <v>0.1739130434782609</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C26" t="n">
-        <v>0.232</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C27" t="n">
-        <v>0.24</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -956,32 +2248,32 @@
         <v>0.1826086956521739</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.2</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C29" t="n">
-        <v>0.248</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.2</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C30" t="n">
-        <v>0.248</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -989,21 +2281,21 @@
         <v>0.2173913043478261</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C31" t="n">
-        <v>0.272</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2260869565217391</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C32" t="n">
-        <v>0.272</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1011,54 +2303,54 @@
         <v>0.2260869565217391</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C33" t="n">
-        <v>0.288</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2521739130434782</v>
+        <v>0.2260869565217391</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C34" t="n">
-        <v>0.288</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2521739130434782</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C35" t="n">
-        <v>0.296</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2782608695652174</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C36" t="n">
-        <v>0.296</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2782608695652174</v>
+        <v>0.2869565217391304</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C37" t="n">
-        <v>0.328</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1066,1021 +2358,801 @@
         <v>0.2869565217391304</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C38" t="n">
-        <v>0.328</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2869565217391304</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C39" t="n">
-        <v>0.336</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2956521739130435</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C40" t="n">
-        <v>0.336</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2956521739130435</v>
+        <v>0.3565217391304348</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C41" t="n">
-        <v>0.352</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3130434782608696</v>
+        <v>0.3565217391304348</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C42" t="n">
-        <v>0.352</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3130434782608696</v>
+        <v>0.3652173913043478</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C43" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3304347826086956</v>
+        <v>0.3652173913043478</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C44" t="n">
-        <v>0.36</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3304347826086956</v>
+        <v>0.3739130434782609</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C45" t="n">
-        <v>0.376</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.3739130434782609</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C46" t="n">
-        <v>0.376</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C47" t="n">
-        <v>0.384</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3652173913043478</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C48" t="n">
-        <v>0.384</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3652173913043478</v>
+        <v>0.4086956521739131</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C49" t="n">
-        <v>0.392</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3739130434782609</v>
+        <v>0.4086956521739131</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C50" t="n">
-        <v>0.392</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3739130434782609</v>
+        <v>0.4260869565217391</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C51" t="n">
-        <v>0.408</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3826086956521739</v>
+        <v>0.4260869565217391</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C52" t="n">
-        <v>0.408</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3826086956521739</v>
+        <v>0.4434782608695652</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C53" t="n">
-        <v>0.416</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.391304347826087</v>
+        <v>0.4434782608695652</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C54" t="n">
-        <v>0.416</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.391304347826087</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C55" t="n">
-        <v>0.424</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C56" t="n">
-        <v>0.424</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C57" t="n">
-        <v>0.432</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C58" t="n">
-        <v>0.432</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C59" t="n">
-        <v>0.44</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4521739130434783</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C60" t="n">
-        <v>0.44</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4521739130434783</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C61" t="n">
-        <v>0.48</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4608695652173913</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C62" t="n">
-        <v>0.48</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4608695652173913</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C63" t="n">
-        <v>0.504</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4869565217391305</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C64" t="n">
-        <v>0.504</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4869565217391305</v>
+        <v>0.5826086956521739</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C65" t="n">
-        <v>0.512</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5043478260869565</v>
+        <v>0.5826086956521739</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C66" t="n">
-        <v>0.512</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5043478260869565</v>
+        <v>0.6</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C67" t="n">
-        <v>0.528</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5565217391304348</v>
+        <v>0.6</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C68" t="n">
-        <v>0.528</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5565217391304348</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C69" t="n">
-        <v>0.536</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5826086956521739</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C70" t="n">
-        <v>0.536</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5826086956521739</v>
+        <v>0.6347826086956522</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C71" t="n">
-        <v>0.544</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6</v>
+        <v>0.6347826086956522</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C72" t="n">
-        <v>0.544</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6</v>
+        <v>0.6782608695652174</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C73" t="n">
-        <v>0.552</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.6782608695652174</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C74" t="n">
-        <v>0.552</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.6869565217391305</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C75" t="n">
-        <v>0.584</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6173913043478261</v>
+        <v>0.6869565217391305</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C76" t="n">
-        <v>0.584</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6173913043478261</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C77" t="n">
-        <v>0.592</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6347826086956522</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C78" t="n">
-        <v>0.592</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6347826086956522</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C79" t="n">
-        <v>0.608</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6434782608695652</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C80" t="n">
-        <v>0.608</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6434782608695652</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C81" t="n">
-        <v>0.616</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C82" t="n">
-        <v>0.616</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C83" t="n">
-        <v>0.648</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.6869565217391305</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C84" t="n">
-        <v>0.648</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6869565217391305</v>
+        <v>0.7739130434782608</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C85" t="n">
-        <v>0.656</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7043478260869566</v>
+        <v>0.7739130434782608</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C86" t="n">
-        <v>0.656</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7043478260869566</v>
+        <v>0.8</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C87" t="n">
-        <v>0.664</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7304347826086957</v>
+        <v>0.8</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C88" t="n">
-        <v>0.664</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.7304347826086957</v>
+        <v>0.8173913043478261</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C89" t="n">
-        <v>0.672</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.8173913043478261</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C90" t="n">
-        <v>0.672</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C91" t="n">
-        <v>0.72</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.7565217391304347</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C92" t="n">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.7565217391304347</v>
+        <v>0.8347826086956521</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C93" t="n">
-        <v>0.736</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8</v>
+        <v>0.8347826086956521</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C94" t="n">
-        <v>0.736</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.8</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C95" t="n">
-        <v>0.752</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.808695652173913</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C96" t="n">
-        <v>0.752</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.808695652173913</v>
+        <v>0.8782608695652174</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C97" t="n">
-        <v>0.768</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8173913043478261</v>
+        <v>0.8782608695652174</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C98" t="n">
-        <v>0.768</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8173913043478261</v>
+        <v>0.8956521739130435</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C99" t="n">
-        <v>0.776</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8347826086956521</v>
+        <v>0.8956521739130435</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C100" t="n">
-        <v>0.776</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8347826086956521</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C101" t="n">
-        <v>0.784</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8434782608695652</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C102" t="n">
-        <v>0.784</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8434782608695652</v>
+        <v>0.9217391304347826</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8521739130434782</v>
+        <v>0.9217391304347826</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.8521739130434782</v>
+        <v>0.9391304347826087</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9391304347826087</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9478260869565217</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C107" t="n">
-        <v>0.824</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.8782608695652174</v>
+        <v>0.9478260869565217</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C108" t="n">
-        <v>0.824</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.8782608695652174</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C109" t="n">
-        <v>0.832</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.8869565217391304</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5424</v>
       </c>
       <c r="C110" t="n">
-        <v>0.832</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="n">
-        <v>0.8869565217391304</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="n">
-        <v>0.8956521739130435</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="n">
-        <v>0.8956521739130435</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.856</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="n">
-        <v>0.9043478260869565</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.856</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="n">
-        <v>0.9043478260869565</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.888</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="n">
-        <v>0.9130434782608695</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.888</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="n">
-        <v>0.9130434782608695</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.896</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="n">
-        <v>0.9217391304347826</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.896</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="n">
-        <v>0.9217391304347826</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.904</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="n">
-        <v>0.9478260869565217</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.904</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="n">
-        <v>0.9478260869565217</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.928</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.928</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.952</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="n">
-        <v>0.9652173913043478</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.952</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="n">
-        <v>0.9652173913043478</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.976</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="n">
-        <v>0.9739130434782609</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.976</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="n">
-        <v>0.9739130434782609</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.984</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="n">
-        <v>0.991304347826087</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.984</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="n">
-        <v>0.991304347826087</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="n">
-        <v>1</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2095,7 +3167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2119,274 +3191,274 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008695652173913044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008695652173913044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.05217391304347826</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.05217391304347826</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.06086956521739131</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.048</v>
+        <v>0.04</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.06086956521739131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.048</v>
+        <v>0.04</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.0782608695652174</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.0782608695652174</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.096</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.096</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0782608695652174</v>
+        <v>0.1043478260869565</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.104</v>
+        <v>0.08</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0782608695652174</v>
+        <v>0.1043478260869565</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.104</v>
+        <v>0.08</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.1217391304347826</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.112</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.1217391304347826</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.112</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.144</v>
+        <v>0.104</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.144</v>
+        <v>0.104</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.1652173913043478</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.1652173913043478</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1130434782608696</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.168</v>
+        <v>0.128</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1130434782608696</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.168</v>
+        <v>0.128</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.1826086956521739</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.176</v>
+        <v>0.136</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.1826086956521739</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.176</v>
+        <v>0.136</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.192</v>
+        <v>0.144</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.192</v>
+        <v>0.144</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1478260869565217</v>
+        <v>0.2260869565217391</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2394,10 +3466,10 @@
         <v>0.2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1478260869565217</v>
+        <v>0.2260869565217391</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2405,1120 +3477,911 @@
         <v>0.2</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.2347826086956522</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.216</v>
+        <v>0.264</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.2347826086956522</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.216</v>
+        <v>0.264</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.224</v>
+        <v>0.312</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.224</v>
+        <v>0.312</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.2695652173913043</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.232</v>
+        <v>0.336</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.2695652173913043</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.232</v>
+        <v>0.336</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.191304347826087</v>
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.248</v>
+        <v>0.352</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.191304347826087</v>
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.248</v>
+        <v>0.352</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2</v>
+        <v>0.3130434782608696</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.264</v>
+        <v>0.376</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2</v>
+        <v>0.3130434782608696</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.264</v>
+        <v>0.376</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2434782608695652</v>
+        <v>0.3217391304347826</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.28</v>
+        <v>0.392</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2434782608695652</v>
+        <v>0.3217391304347826</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.28</v>
+        <v>0.392</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.3652173913043478</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.328</v>
+        <v>0.4</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.3652173913043478</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.328</v>
+        <v>0.4</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2695652173913043</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.336</v>
+        <v>0.408</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2695652173913043</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.336</v>
+        <v>0.408</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2956521739130435</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.344</v>
+        <v>0.416</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2956521739130435</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.344</v>
+        <v>0.416</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3130434782608696</v>
+        <v>0.4173913043478261</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.352</v>
+        <v>0.44</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3130434782608696</v>
+        <v>0.4173913043478261</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.352</v>
+        <v>0.44</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.4608695652173913</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.384</v>
+        <v>0.448</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.4608695652173913</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.384</v>
+        <v>0.448</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3565217391304348</v>
+        <v>0.4695652173913044</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.392</v>
+        <v>0.456</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3565217391304348</v>
+        <v>0.4695652173913044</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.392</v>
+        <v>0.456</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3652173913043478</v>
+        <v>0.4782608695652174</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.408</v>
+        <v>0.488</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3652173913043478</v>
+        <v>0.4782608695652174</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.408</v>
+        <v>0.488</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3826086956521739</v>
+        <v>0.4956521739130435</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.416</v>
+        <v>0.496</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3826086956521739</v>
+        <v>0.4956521739130435</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.416</v>
+        <v>0.496</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.391304347826087</v>
+        <v>0.5043478260869565</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.448</v>
+        <v>0.528</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.391304347826087</v>
+        <v>0.5043478260869565</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.448</v>
+        <v>0.528</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4</v>
+        <v>0.5565217391304348</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.456</v>
+        <v>0.536</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4</v>
+        <v>0.5565217391304348</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.456</v>
+        <v>0.536</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4173913043478261</v>
+        <v>0.5739130434782609</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.464</v>
+        <v>0.552</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4173913043478261</v>
+        <v>0.5739130434782609</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.464</v>
+        <v>0.552</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4434782608695652</v>
+        <v>0.591304347826087</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.472</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4434782608695652</v>
+        <v>0.591304347826087</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.472</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4956521739130435</v>
+        <v>0.6173913043478261</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.488</v>
+        <v>0.576</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4956521739130435</v>
+        <v>0.6173913043478261</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.488</v>
+        <v>0.576</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5130434782608696</v>
+        <v>0.6260869565217392</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.496</v>
+        <v>0.584</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5130434782608696</v>
+        <v>0.6260869565217392</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.496</v>
+        <v>0.584</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5391304347826087</v>
+        <v>0.6347826086956522</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5391304347826087</v>
+        <v>0.6347826086956522</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5478260869565217</v>
+        <v>0.6434782608695652</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.608</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5478260869565217</v>
+        <v>0.6434782608695652</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.608</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.616</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.616</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6</v>
+        <v>0.7130434782608696</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.576</v>
+        <v>0.624</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6</v>
+        <v>0.7130434782608696</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.576</v>
+        <v>0.624</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7565217391304347</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.584</v>
+        <v>0.632</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7565217391304347</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.584</v>
+        <v>0.632</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6173913043478261</v>
+        <v>0.7739130434782608</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.592</v>
+        <v>0.64</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6173913043478261</v>
+        <v>0.7739130434782608</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.592</v>
+        <v>0.64</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6260869565217392</v>
+        <v>0.7826086956521739</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.608</v>
+        <v>0.648</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6260869565217392</v>
+        <v>0.7826086956521739</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.608</v>
+        <v>0.648</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6347826086956522</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.616</v>
+        <v>0.664</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6347826086956522</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.616</v>
+        <v>0.664</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6608695652173913</v>
+        <v>0.8173913043478261</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.624</v>
+        <v>0.672</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6608695652173913</v>
+        <v>0.8173913043478261</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.624</v>
+        <v>0.672</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6695652173913044</v>
+        <v>0.8260869565217391</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6695652173913044</v>
+        <v>0.8260869565217391</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6869565217391305</v>
+        <v>0.8608695652173913</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.648</v>
+        <v>0.712</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6869565217391305</v>
+        <v>0.8608695652173913</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.648</v>
+        <v>0.712</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7043478260869566</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.664</v>
+        <v>0.72</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7043478260869566</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.664</v>
+        <v>0.72</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7130434782608696</v>
+        <v>0.8869565217391304</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.672</v>
+        <v>0.728</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7130434782608696</v>
+        <v>0.8869565217391304</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.672</v>
+        <v>0.728</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7217391304347827</v>
+        <v>0.8956521739130435</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.704</v>
+        <v>0.752</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7217391304347827</v>
+        <v>0.8956521739130435</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.704</v>
+        <v>0.752</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7478260869565218</v>
+        <v>0.9043478260869565</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.712</v>
+        <v>0.76</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7478260869565218</v>
+        <v>0.9043478260869565</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.712</v>
+        <v>0.76</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7739130434782608</v>
+        <v>0.9130434782608695</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.728</v>
+        <v>0.792</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7739130434782608</v>
+        <v>0.9130434782608695</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.728</v>
+        <v>0.792</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.9304347826086956</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.752</v>
+        <v>0.872</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.9304347826086956</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.752</v>
+        <v>0.872</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8173913043478261</v>
+        <v>0.9565217391304348</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8173913043478261</v>
+        <v>0.9565217391304348</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.9652173913043478</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.768</v>
+        <v>0.984</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.9652173913043478</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.768</v>
+        <v>0.984</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8347826086956521</v>
+        <v>0.9739130434782609</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.776</v>
+        <v>0.992</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8347826086956521</v>
+        <v>0.9739130434782609</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.776</v>
+        <v>0.992</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8434782608695652</v>
+        <v>0.9826086956521739</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8434782608695652</v>
+        <v>0.9826086956521739</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5019130434782608</v>
+        <v>0.5423999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8521739130434782</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="n">
-        <v>0.8080000000000001</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.8521739130434782</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="n">
-        <v>0.8080000000000001</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.8695652173913043</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.8695652173913043</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.8782608695652174</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="n">
-        <v>0.832</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.8782608695652174</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="n">
-        <v>0.832</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.8869565217391304</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="n">
-        <v>0.848</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.8869565217391304</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="n">
-        <v>0.848</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.8956521739130435</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="n">
-        <v>0.856</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.8956521739130435</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="n">
-        <v>0.856</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.9304347826086956</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.9304347826086956</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.9391304347826087</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="n">
-        <v>0.928</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.9391304347826087</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="n">
-        <v>0.928</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.9478260869565217</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.9478260869565217</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.9652173913043478</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9652173913043478</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="n">
-        <v>1</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.5019130434782608</v>
-      </c>
-      <c r="C129" t="n">
         <v>1</v>
       </c>
     </row>
